--- a/ailerons.xlsx
+++ b/ailerons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b9d30fd36f7f731/Dokumente/Uni/ADSEE2/vroom/it-do-vroom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{BE597AAB-1D86-4AB1-B37E-43FDA1B2FF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D326F30-CA32-469E-AD62-331AF8311F11}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{BE597AAB-1D86-4AB1-B37E-43FDA1B2FF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B99392-E514-49E8-ACAF-C7C6882A028C}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{20D4252B-785B-41EA-95F7-98F57B0BD184}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Rolling requirement for reconnaissance vehicle Class II</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Airfoil lift curve slope cruise 1/deg</t>
   </si>
   <si>
-    <t>aileron cd0 cruise</t>
-  </si>
-  <si>
     <t xml:space="preserve">wing area </t>
   </si>
   <si>
@@ -110,18 +107,12 @@
     <t xml:space="preserve">taper ratio </t>
   </si>
   <si>
-    <t>c(y)*y=cr-cr*(1-tr)*(b/2)*y^2</t>
-  </si>
-  <si>
     <t>integrand</t>
   </si>
   <si>
     <t>integral</t>
   </si>
   <si>
-    <t>cr*y-cr*(1-tr)*b/6*y^3</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
@@ -129,6 +120,42 @@
   </si>
   <si>
     <t>aileron control deriv</t>
+  </si>
+  <si>
+    <t>airfoil cd0 cruise</t>
+  </si>
+  <si>
+    <t>c(y)*y^2=cr*y^2-cr*(1-tr)*y^3/(b/2)</t>
+  </si>
+  <si>
+    <t>c(y)*y=cr*y-cr*(1-tr)*y^2/(b/2)</t>
+  </si>
+  <si>
+    <t>cr*y^3/3-cr*(1-tr)*y^4/(2*b)</t>
+  </si>
+  <si>
+    <t>0,5*cr*y^2-cr*(1-tr)*y^3/(1,5*b)</t>
+  </si>
+  <si>
+    <t>roll damping integral</t>
+  </si>
+  <si>
+    <t>roll damping coefficient</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>speed approach m/s</t>
+  </si>
+  <si>
+    <t>roll requirement at approach</t>
+  </si>
+  <si>
+    <t>steady roll rate approach</t>
+  </si>
+  <si>
+    <t>steady roll rate cruise</t>
   </si>
 </sst>
 </file>
@@ -170,13 +197,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -204,8 +230,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20485</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12646</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -560,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83588033-B7EE-49E4-B4B9-AB98C1B8F6D7}">
-  <dimension ref="A3:D37"/>
+  <dimension ref="A3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,17 +598,30 @@
     <col min="2" max="2" width="15.7265625" customWidth="1"/>
     <col min="3" max="3" width="15.90625" customWidth="1"/>
     <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f>45*PI()/180/1.4</f>
+        <v>0.56099868814103448</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <f>25*PI()/180</f>
+        <v>0.43633231299858238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -590,19 +629,19 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.16239999999999999</v>
+        <v>0.112</v>
       </c>
       <c r="C7">
         <f>B7*180/PI()</f>
-        <v>9.3048345929245695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6.41712730546522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -611,7 +650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -619,7 +658,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -627,30 +666,42 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
         <v>200.66800000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>40.277777999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0.18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -658,7 +709,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -666,56 +717,83 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B18">
         <v>92.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>5.0149999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.90269999999999995</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.18</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <f>$B$19*($B$10/2)^3/3-$B$19*(1-$B$21)*($B$10/2)^4/(2*$B$10)</f>
+        <v>2490.6308856916662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <f>-4*($C$7+$B$17)*$B$23/($B$18*$B$10^2)</f>
+        <v>-0.69853277126082125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -723,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -731,7 +809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -739,21 +817,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.55000000000000004</v>
       </c>
@@ -761,15 +845,23 @@
         <v>0.75</v>
       </c>
       <c r="C34">
-        <f>$B$19*B34-$B$19*(1-$B$21)*$B$10/6*A34^3-($B$19*A34-$B$19*(1-$B$21)*$B$10/6*A34^3)</f>
-        <v>1.0029999999999997</v>
+        <f>0.5*$B$19*(B34*$B$10*0.5)^2-$B$19*(1-$B$21)*(B34*$B$10*0.5)^3/(1.5*$B$10)-(0.5*$B$19*(A34*$B$10*0.5)^2-$B$19*(1-$B$21)*(A34*$B$10*0.5)^3/(1.5*$B$10))</f>
+        <v>74.370745067166638</v>
       </c>
       <c r="D34">
         <f>2*$C$7*$B$9/($B$18*$B$10)*C34</f>
-        <v>3.5832924205562249E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.18323795998920311</v>
+      </c>
+      <c r="E34">
+        <f>-D34/$B$24*$B$14*2*$B$11/$B$10</f>
+        <v>0.60350328357611327</v>
+      </c>
+      <c r="F34">
+        <f>-D34/$B$24*$B$14*2*$E$11/$B$10</f>
+        <v>0.12113426793584296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.45</v>
       </c>
@@ -777,15 +869,23 @@
         <v>0.75</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C36" si="0">$B$19*B35-$B$19*(1-$B$21)*$B$10/6*A35^3-($B$19*A35-$B$19*(1-$B$21)*$B$10/6*A35^3)</f>
-        <v>1.5044999999999997</v>
+        <f t="shared" ref="C35:C41" si="0">0.5*$B$19*(B35*$B$10*0.5)^2-$B$19*(1-$B$21)*(B35*$B$10*0.5)^3/(1.5*$B$10)-(0.5*$B$19*(A35*$B$10*0.5)^2-$B$19*(1-$B$21)*(A35*$B$10*0.5)^3/(1.5*$B$10))</f>
+        <v>110.75262182324998</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D37" si="1">2*$C$7*$B$9/($B$18*$B$10)*C35</f>
-        <v>5.374938630834338E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <f t="shared" ref="D35:D41" si="1">2*$C$7*$B$9/($B$18*$B$10)*C35</f>
+        <v>0.27287725123662238</v>
+      </c>
+      <c r="E35">
+        <f>-D35/$B$24*$B$14*2*$B$11/$B$10</f>
+        <v>0.89873472256637854</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F41" si="2">-D35/$B$24*$B$14*2*$E$11/$B$10</f>
+        <v>0.18039267664211622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0.55000000000000004</v>
       </c>
@@ -793,15 +893,23 @@
         <v>0.85</v>
       </c>
       <c r="C36">
-        <f>$B$19*B36-$B$19*(1-$B$21)*$B$10/6*A36^3-($B$19*A36-$B$19*(1-$B$21)*$B$10/6*A36^3)</f>
-        <v>1.5044999999999997</v>
+        <f t="shared" si="0"/>
+        <v>108.30505007024991</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>5.374938630834338E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.26684681474520511</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E41" si="3">-D36/$B$24*$B$14*2*$B$11/$B$10</f>
+        <v>0.87887318173618145</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.17640609815278754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0.35</v>
       </c>
@@ -809,12 +917,116 @@
         <v>0.75</v>
       </c>
       <c r="C37">
-        <f>$B$19*B37-$B$19*(1-$B$21)*$B$10/6*A37^3-($B$19*A37-$B$19*(1-$B$21)*$B$10/6*A37^3)</f>
-        <v>2.0059999999999998</v>
+        <f t="shared" si="0"/>
+        <v>143.89579252233332</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>7.1665848411124507E-3</v>
+        <v>0.35453687399539885</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>1.1676847287409293</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.23437591583220724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>0.1</v>
+      </c>
+      <c r="B38">
+        <v>0.3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>40.661006832666665</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.10018240285741355</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>0.32995569850568385</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>6.6228209650999986E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>0.1</v>
+      </c>
+      <c r="B39">
+        <v>0.75</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>199.28034441629163</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.49099580411368104</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>1.6171189638989676</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.32458567697646179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>0.65</v>
+      </c>
+      <c r="B40">
+        <v>0.75</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>36.777443908083342</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>9.0613907246032105E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>0.29844138498302408</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>5.9902704219700093E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>0.1</v>
+      </c>
+      <c r="B41">
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>71.424593882999986</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0.17597910124953448</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>0.57959587331754392</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0.11633560864313271</v>
       </c>
     </row>
   </sheetData>

--- a/ailerons.xlsx
+++ b/ailerons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b9d30fd36f7f731/Dokumente/Uni/ADSEE2/vroom/it-do-vroom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{BE597AAB-1D86-4AB1-B37E-43FDA1B2FF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8B99392-E514-49E8-ACAF-C7C6882A028C}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{BE597AAB-1D86-4AB1-B37E-43FDA1B2FF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7350C19C-3A1F-43A0-A1E6-73558ED6D405}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{20D4252B-785B-41EA-95F7-98F57B0BD184}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{20D4252B-785B-41EA-95F7-98F57B0BD184}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -225,15 +225,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>1434631</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>141111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12646</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>686844</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94153</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -256,8 +256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4724401" y="368300"/>
-          <a:ext cx="3830484" cy="2159000"/>
+          <a:off x="8552903" y="501728"/>
+          <a:ext cx="3822645" cy="2124585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83588033-B7EE-49E4-B4B9-AB98C1B8F6D7}">
-  <dimension ref="A3:F41"/>
+  <dimension ref="A3:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,8 +617,8 @@
         <v>37</v>
       </c>
       <c r="E3">
-        <f>25*PI()/180</f>
-        <v>0.43633231299858238</v>
+        <f>30*PI()/180/1.8</f>
+        <v>0.29088820866572157</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.56000000000000005</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>40.277777999999998</v>
+        <v>40.277777780000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -695,7 +695,8 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>0.18</v>
+        <f>20*PI()/180</f>
+        <v>0.3490658503988659</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -850,15 +851,15 @@
       </c>
       <c r="D34">
         <f>2*$C$7*$B$9/($B$18*$B$10)*C34</f>
-        <v>0.18323795998920311</v>
+        <v>0.1701495342756886</v>
       </c>
       <c r="E34">
         <f>-D34/$B$24*$B$14*2*$B$11/$B$10</f>
-        <v>0.60350328357611327</v>
+        <v>1.086750408611131</v>
       </c>
       <c r="F34">
         <f>-D34/$B$24*$B$14*2*$E$11/$B$10</f>
-        <v>0.12113426793584296</v>
+        <v>0.21813090009549774</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -869,20 +870,20 @@
         <v>0.75</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C41" si="0">0.5*$B$19*(B35*$B$10*0.5)^2-$B$19*(1-$B$21)*(B35*$B$10*0.5)^3/(1.5*$B$10)-(0.5*$B$19*(A35*$B$10*0.5)^2-$B$19*(1-$B$21)*(A35*$B$10*0.5)^3/(1.5*$B$10))</f>
+        <f t="shared" ref="C35:C42" si="0">0.5*$B$19*(B35*$B$10*0.5)^2-$B$19*(1-$B$21)*(B35*$B$10*0.5)^3/(1.5*$B$10)-(0.5*$B$19*(A35*$B$10*0.5)^2-$B$19*(1-$B$21)*(A35*$B$10*0.5)^3/(1.5*$B$10))</f>
         <v>110.75262182324998</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:D41" si="1">2*$C$7*$B$9/($B$18*$B$10)*C35</f>
-        <v>0.27287725123662238</v>
+        <f t="shared" ref="D35:D42" si="1">2*$C$7*$B$9/($B$18*$B$10)*C35</f>
+        <v>0.253386019005435</v>
       </c>
       <c r="E35">
         <f>-D35/$B$24*$B$14*2*$B$11/$B$10</f>
-        <v>0.89873472256637854</v>
+        <v>1.6183844455567784</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F41" si="2">-D35/$B$24*$B$14*2*$E$11/$B$10</f>
-        <v>0.18039267664211622</v>
+        <f t="shared" ref="F35:F42" si="2">-D35/$B$24*$B$14*2*$E$11/$B$10</f>
+        <v>0.32483968076995051</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -898,15 +899,15 @@
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>0.26684681474520511</v>
+        <v>0.24778632797769043</v>
       </c>
       <c r="E36">
-        <f t="shared" ref="E36:E41" si="3">-D36/$B$24*$B$14*2*$B$11/$B$10</f>
-        <v>0.87887318173618145</v>
+        <f t="shared" ref="E36:E42" si="3">-D36/$B$24*$B$14*2*$B$11/$B$10</f>
+        <v>1.5826190434450254</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.17640609815278754</v>
+        <v>0.3176609032943713</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -922,15 +923,15 @@
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>0.35453687399539885</v>
+        <v>0.32921281156715604</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>1.1676847287409293</v>
+        <v>2.1026925463747541</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
-        <v>0.23437591583220724</v>
+        <v>0.42204927104742507</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -946,15 +947,15 @@
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>0.10018240285741355</v>
+        <v>9.3026516939026846E-2</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>0.32995569850568385</v>
+        <v>0.59416327952654691</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
-        <v>6.6228209650999986E-2</v>
+        <v>0.11925955577275042</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -970,15 +971,15 @@
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>0.49099580411368104</v>
+        <v>0.45592467524841807</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>1.6171189638989676</v>
+        <v>2.9120051913824749</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
-        <v>0.32458567697646179</v>
+        <v>0.58449328240033138</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -994,15 +995,15 @@
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>9.0613907246032105E-2</v>
+        <v>8.4141485299886951E-2</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>0.29844138498302408</v>
+        <v>0.53741430395360723</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>5.9902704219700093E-2</v>
+        <v>0.10786898713515243</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1018,15 +1019,39 @@
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>0.17597910124953448</v>
+        <v>0.16340916544599626</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>0.57959587331754392</v>
+        <v>1.0436994616247632</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
-        <v>0.11633560864313271</v>
+        <v>0.20948977906007857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>0.75</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>75.070198442708204</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>0.17174978267966079</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>1.0969712453257257</v>
+      </c>
+      <c r="F42">
+        <f>-D42/$B$24*$B$14*2*$E$11/$B$10</f>
+        <v>0.22018241099866165</v>
       </c>
     </row>
   </sheetData>
